--- a/src/main/resources/locators.xlsx
+++ b/src/main/resources/locators.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EclipseWorkspace\POC_Doxa\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FE6D2A7-0B55-491A-A795-191F23FD470A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09C28C55-8C35-46D8-9F54-68FF4C8B5227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8BF59495-C87C-4E2D-ABA6-49FA20A7A1A3}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>XPATH LOCATORS</t>
   </si>
@@ -96,6 +96,12 @@
   </si>
   <si>
     <t>Forgot your password header text</t>
+  </si>
+  <si>
+    <t>//div[@class="login_content"]/a</t>
+  </si>
+  <si>
+    <t>doxa connex link</t>
   </si>
 </sst>
 </file>
@@ -470,10 +476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8E1A71E-58B5-4DDE-91A1-9B15B1881996}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -569,6 +575,14 @@
         <v>18</v>
       </c>
     </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
